--- a/output/POLO_11228500000100.xlsx
+++ b/output/POLO_11228500000100.xlsx
@@ -1846,10 +1846,10 @@
         <v>44165</v>
       </c>
       <c r="B133">
-        <v>2.04788915</v>
+        <v>2.02465425</v>
       </c>
       <c r="C133">
-        <v>0.1132932667842708</v>
+        <v>0.1048063250185554</v>
       </c>
     </row>
   </sheetData>

--- a/output/POLO_11228500000100.xlsx
+++ b/output/POLO_11228500000100.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>POLO MACRO FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1470 +383,1074 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
       <c r="B2">
-        <v>0.0004351700000000402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
       <c r="B3">
-        <v>0.009188849999999915</v>
-      </c>
-      <c r="C3">
         <v>0.008749872318063234</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
       <c r="B4">
-        <v>0.02939705999999997</v>
-      </c>
-      <c r="C4">
         <v>0.02002421053304348</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
       <c r="B5">
-        <v>0.04009789999999991</v>
-      </c>
-      <c r="C5">
         <v>0.01039525020597964</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
       <c r="B6">
-        <v>0.03802195000000008</v>
-      </c>
-      <c r="C6">
         <v>-0.001995917884268228</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
       <c r="B7">
-        <v>0.0573533100000001</v>
-      </c>
-      <c r="C7">
         <v>0.0186232670706048</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
       <c r="B8">
-        <v>0.05977154000000007</v>
-      </c>
-      <c r="C8">
         <v>0.002287059563846228</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
       <c r="B9">
-        <v>0.07031030999999999</v>
-      </c>
-      <c r="C9">
         <v>0.009944379144206872</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
       <c r="B10">
-        <v>0.08056982999999995</v>
-      </c>
-      <c r="C10">
         <v>0.009585556547614615</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
       <c r="B11">
-        <v>0.0842229699999999</v>
-      </c>
-      <c r="C11">
         <v>0.003380753282737903</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
       <c r="B12">
-        <v>0.09618722000000002</v>
-      </c>
-      <c r="C12">
         <v>0.01103486121494002</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
       <c r="B13">
-        <v>0.10664333</v>
-      </c>
-      <c r="C13">
         <v>0.009538616952677215</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
       <c r="B14">
-        <v>0.1241011000000001</v>
-      </c>
-      <c r="C14">
         <v>0.01577542603541482</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
       <c r="B15">
-        <v>0.1303485499999999</v>
-      </c>
-      <c r="C15">
         <v>0.005557729638374864</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
       <c r="B16">
-        <v>0.1524071300000001</v>
-      </c>
-      <c r="C16">
         <v>0.01951484787590529</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
       <c r="B17">
-        <v>0.1730864400000001</v>
-      </c>
-      <c r="C17">
         <v>0.0179444481569635</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
       <c r="B18">
-        <v>0.18332214</v>
-      </c>
-      <c r="C18">
         <v>0.008725443966431046</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
       <c r="B19">
-        <v>0.2126878000000001</v>
-      </c>
-      <c r="C19">
         <v>0.02481628544531422</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
       <c r="B20">
-        <v>0.2236456899999999</v>
-      </c>
-      <c r="C20">
         <v>0.009036035490750161</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
       <c r="B21">
-        <v>0.23354743</v>
-      </c>
-      <c r="C21">
         <v>0.008091999245304571</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
       <c r="B22">
-        <v>0.2609329600000001</v>
-      </c>
-      <c r="C22">
         <v>0.02220062993443239</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
       <c r="B23">
-        <v>0.2901885399999999</v>
-      </c>
-      <c r="C23">
         <v>0.02320153483814069</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
       <c r="B24">
-        <v>0.3064481100000001</v>
-      </c>
-      <c r="C24">
         <v>0.01260247591410169</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
       <c r="B25">
-        <v>0.2931862000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.010151118822469</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
       <c r="B26">
-        <v>0.30988343</v>
-      </c>
-      <c r="C26">
         <v>0.01291169825350735</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
       <c r="B27">
-        <v>0.33257461</v>
-      </c>
-      <c r="C27">
         <v>0.01732305293761915</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
       <c r="B28">
-        <v>0.3520610900000001</v>
-      </c>
-      <c r="C28">
         <v>0.01462318121159467</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
       <c r="B29">
-        <v>0.39497834</v>
-      </c>
-      <c r="C29">
         <v>0.0317420938428159</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
       <c r="B30">
-        <v>0.41424777</v>
-      </c>
-      <c r="C30">
         <v>0.01381342594896484</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
       <c r="B31">
-        <v>0.4153114</v>
-      </c>
-      <c r="C31">
         <v>0.0007520817939843383</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
       <c r="B32">
-        <v>0.4365995600000001</v>
-      </c>
-      <c r="C32">
         <v>0.01504132588771645</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
       <c r="B33">
-        <v>0.45867927</v>
-      </c>
-      <c r="C33">
         <v>0.01536942556212395</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
       <c r="B34">
-        <v>0.48714704</v>
-      </c>
-      <c r="C34">
         <v>0.01951612707843586</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
       <c r="B35">
-        <v>0.51840676</v>
-      </c>
-      <c r="C35">
         <v>0.02101992550783671</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
       <c r="B36">
-        <v>0.5315657300000001</v>
-      </c>
-      <c r="C36">
         <v>0.008666300985119557</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
       <c r="B37">
-        <v>0.5494806299999999</v>
-      </c>
-      <c r="C37">
         <v>0.0116971146905982</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
       <c r="B38">
-        <v>0.59923875</v>
-      </c>
-      <c r="C38">
         <v>0.03211277316838745</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
       <c r="B39">
-        <v>0.6244224199999999</v>
-      </c>
-      <c r="C39">
         <v>0.01574728601342357</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
       <c r="B40">
-        <v>0.6223415400000001</v>
-      </c>
-      <c r="C40">
         <v>-0.001280996848098126</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
       <c r="B41">
-        <v>0.6436629700000001</v>
-      </c>
-      <c r="C41">
         <v>0.01314238061117501</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
       <c r="B42">
-        <v>0.6712569100000001</v>
-      </c>
-      <c r="C42">
         <v>0.01678807669433602</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
       <c r="B43">
-        <v>0.7070111400000001</v>
-      </c>
-      <c r="C43">
         <v>0.02139361685571139</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
       <c r="B44">
-        <v>0.6541562999999999</v>
-      </c>
-      <c r="C44">
         <v>-0.03096338316807945</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
       <c r="B45">
-        <v>0.68740738</v>
-      </c>
-      <c r="C45">
         <v>0.02010153454059949</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
       <c r="B46">
-        <v>0.6953516200000001</v>
-      </c>
-      <c r="C46">
         <v>0.004707956178311878</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
       <c r="B47">
-        <v>0.6972720699999999</v>
-      </c>
-      <c r="C47">
         <v>0.001132773860799352</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
       <c r="B48">
-        <v>0.7251145299999999</v>
-      </c>
-      <c r="C48">
         <v>0.01640424095354387</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
       <c r="B49">
-        <v>0.75864062</v>
-      </c>
-      <c r="C49">
         <v>0.01943412417956969</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
       <c r="B50">
-        <v>0.79552479</v>
-      </c>
-      <c r="C50">
         <v>0.02097311388156164</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
       <c r="B51">
-        <v>0.79130656</v>
-      </c>
-      <c r="C51">
         <v>-0.002349302011029342</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
       <c r="B52">
-        <v>0.8017352200000001</v>
-      </c>
-      <c r="C52">
         <v>0.005821817567619458</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
       <c r="B53">
-        <v>0.8121454100000001</v>
-      </c>
-      <c r="C53">
         <v>0.005777868959013777</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
       <c r="B54">
-        <v>0.82811163</v>
-      </c>
-      <c r="C54">
         <v>0.008810672649056217</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
       <c r="B55">
-        <v>0.86035218</v>
-      </c>
-      <c r="C55">
         <v>0.017635985391111</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
       <c r="B56">
-        <v>0.8454858999999999</v>
-      </c>
-      <c r="C56">
         <v>-0.007991110586383798</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
       <c r="B57">
-        <v>0.8820101300000001</v>
-      </c>
-      <c r="C57">
         <v>0.01979111842577619</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
       <c r="B58">
-        <v>0.90776846</v>
-      </c>
-      <c r="C58">
         <v>0.01368660539568922</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
       <c r="B59">
-        <v>0.9511949399999999</v>
-      </c>
-      <c r="C59">
         <v>0.02276297198036281</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
       <c r="B60">
-        <v>0.9323808</v>
-      </c>
-      <c r="C60">
         <v>-0.00964236817875308</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
       <c r="B61">
-        <v>0.9403322999999999</v>
-      </c>
-      <c r="C61">
         <v>0.004114872182542806</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
       <c r="B62">
-        <v>0.9698736999999999</v>
-      </c>
-      <c r="C62">
         <v>0.01522491791741043</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
       <c r="B63">
-        <v>1.01921123</v>
-      </c>
-      <c r="C63">
         <v>0.02504603721548238</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
       <c r="B64">
-        <v>1.04601949</v>
-      </c>
-      <c r="C64">
         <v>0.01327660009101672</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
       <c r="B65">
-        <v>1.07403646</v>
-      </c>
-      <c r="C65">
         <v>0.01369340328229218</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
       <c r="B66">
-        <v>1.04695726</v>
-      </c>
-      <c r="C66">
         <v>-0.01305627963743694</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
       <c r="B67">
-        <v>1.10583497</v>
-      </c>
-      <c r="C67">
         <v>0.0287635267968418</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
       <c r="B68">
-        <v>1.09319978</v>
-      </c>
-      <c r="C68">
         <v>-0.006000085562260393</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
       <c r="B69">
-        <v>1.20369439</v>
-      </c>
-      <c r="C69">
         <v>0.05278741716665003</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
       <c r="B70">
-        <v>1.22136099</v>
-      </c>
-      <c r="C70">
         <v>0.008016810352727832</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
       <c r="B71">
-        <v>1.22440205</v>
-      </c>
-      <c r="C71">
         <v>0.001369007565042324</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
       <c r="B72">
-        <v>1.2802544</v>
-      </c>
-      <c r="C72">
         <v>0.02510892758797811</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
       <c r="B73">
-        <v>1.32294584</v>
-      </c>
-      <c r="C73">
         <v>0.01872222678311686</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
       <c r="B74">
-        <v>1.32718621</v>
-      </c>
-      <c r="C74">
         <v>0.001825427836922744</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
       <c r="B75">
-        <v>1.32799401</v>
-      </c>
-      <c r="C75">
         <v>0.0003471144666158388</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
       <c r="B76">
-        <v>1.31751505</v>
-      </c>
-      <c r="C76">
         <v>-0.004501283059572758</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
       <c r="B77">
-        <v>1.29340634</v>
-      </c>
-      <c r="C77">
         <v>-0.01040282780472113</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
       <c r="B78">
-        <v>1.31540783</v>
-      </c>
-      <c r="C78">
         <v>0.009593367566952615</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
       <c r="B79">
-        <v>1.37999418</v>
-      </c>
-      <c r="C79">
         <v>0.02789415720339883</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
       <c r="B80">
-        <v>1.36799416</v>
-      </c>
-      <c r="C80">
         <v>-0.005042037539772615</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
       <c r="B81">
-        <v>1.39652933</v>
-      </c>
-      <c r="C81">
         <v>0.01205035488769957</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
       <c r="B82">
-        <v>1.43286957</v>
-      </c>
-      <c r="C82">
         <v>0.01516369507566173</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
       <c r="B83">
-        <v>1.45576378</v>
-      </c>
-      <c r="C83">
         <v>0.009410372953121415</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
       <c r="B84">
-        <v>1.47640619</v>
-      </c>
-      <c r="C84">
         <v>0.008405698531802619</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
       <c r="B85">
-        <v>1.57278155</v>
-      </c>
-      <c r="C85">
         <v>0.03891742816229993</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
       <c r="B86">
-        <v>1.64337473</v>
-      </c>
-      <c r="C86">
         <v>0.02743846635560643</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
       <c r="B87">
-        <v>1.68210896</v>
-      </c>
-      <c r="C87">
         <v>0.01465332537244901</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
       <c r="B88">
-        <v>1.71969825</v>
-      </c>
-      <c r="C88">
         <v>0.01401482585554614</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
       <c r="B89">
-        <v>1.74958528</v>
-      </c>
-      <c r="C89">
         <v>0.01098909777950552</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
       <c r="B90">
-        <v>1.76808123</v>
-      </c>
-      <c r="C90">
         <v>0.006726814452541863</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
       <c r="B91">
-        <v>1.82369353</v>
-      </c>
-      <c r="C91">
         <v>0.02009055926440428</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
       <c r="B92">
-        <v>1.86857555</v>
-      </c>
-      <c r="C92">
         <v>0.01589479152859763</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
       <c r="B93">
-        <v>1.90043463</v>
-      </c>
-      <c r="C93">
         <v>0.01110623703112856</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
       <c r="B94">
-        <v>1.90485801</v>
-      </c>
-      <c r="C94">
         <v>0.001525074881622235</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
       <c r="B95">
-        <v>1.92959288</v>
-      </c>
-      <c r="C95">
         <v>0.008515001392443322</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
       <c r="B96">
-        <v>1.95084734</v>
-      </c>
-      <c r="C96">
         <v>0.007255089997351583</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
       <c r="B97">
-        <v>1.93574695</v>
-      </c>
-      <c r="C97">
         <v>-0.005117306407318334</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
       <c r="B98">
-        <v>1.98832468</v>
-      </c>
-      <c r="C98">
         <v>0.01790948978078633</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
       <c r="B99">
-        <v>2.02397856</v>
-      </c>
-      <c r="C99">
         <v>0.01193105964643726</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
       <c r="B100">
-        <v>2.08951611</v>
-      </c>
-      <c r="C100">
         <v>0.02167262389585178</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
       <c r="B101">
-        <v>2.14176706</v>
-      </c>
-      <c r="C101">
         <v>0.01691234100734307</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
       <c r="B102">
-        <v>2.2029664</v>
-      </c>
-      <c r="C102">
         <v>0.01947927355250845</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
       <c r="B103">
-        <v>2.11271491</v>
-      </c>
-      <c r="C103">
         <v>-0.02817747011020799</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
       <c r="B104">
-        <v>2.13979592</v>
-      </c>
-      <c r="C104">
         <v>0.008700125383471313</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
       <c r="B105">
-        <v>2.1954275</v>
-      </c>
-      <c r="C105">
         <v>0.01771821526540496</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
       <c r="B106">
-        <v>2.05582179</v>
-      </c>
-      <c r="C106">
         <v>-0.04368921216331778</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
       <c r="B107">
-        <v>2.12752421</v>
-      </c>
-      <c r="C107">
         <v>0.02346420207966382</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
       <c r="B108">
-        <v>2.28373739</v>
-      </c>
-      <c r="C108">
         <v>0.04994787234596676</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
       <c r="B109">
-        <v>2.33513312</v>
-      </c>
-      <c r="C109">
         <v>0.01565159569596397</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
       <c r="B110">
-        <v>2.36707615</v>
-      </c>
-      <c r="C110">
         <v>0.009577737634652417</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
       <c r="B111">
-        <v>2.64115024</v>
-      </c>
-      <c r="C111">
         <v>0.08139824518076311</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
       <c r="B112">
-        <v>2.67015146</v>
-      </c>
-      <c r="C112">
         <v>0.00796485123887658</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
       <c r="B113">
-        <v>2.63756667</v>
-      </c>
-      <c r="C113">
         <v>-0.00887832296708535</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
       <c r="B114">
-        <v>2.67790103</v>
-      </c>
-      <c r="C114">
         <v>0.01108828061699829</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
       <c r="B115">
-        <v>2.6868343</v>
-      </c>
-      <c r="C115">
         <v>0.002428904401486909</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
       <c r="B116">
-        <v>2.77811278</v>
-      </c>
-      <c r="C116">
         <v>0.02475795562605021</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
       <c r="B117">
-        <v>2.72673361</v>
-      </c>
-      <c r="C117">
         <v>-0.01359916259567029</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
       <c r="B118">
-        <v>2.58604195</v>
-      </c>
-      <c r="C118">
         <v>-0.0377520034226434</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
       <c r="B119">
-        <v>2.60562933</v>
-      </c>
-      <c r="C119">
         <v>0.005462116805410089</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
       <c r="B120">
-        <v>2.65064346</v>
-      </c>
-      <c r="C120">
         <v>0.01248440310418708</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
       <c r="B121">
-        <v>2.63800568</v>
-      </c>
-      <c r="C121">
         <v>-0.003461795198153927</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
       <c r="B122">
-        <v>2.91225069</v>
-      </c>
-      <c r="C122">
         <v>0.07538333749935222</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
       <c r="B123">
-        <v>2.85427062</v>
-      </c>
-      <c r="C123">
         <v>-0.01482013158006501</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
       <c r="B124">
-        <v>2.6019062</v>
-      </c>
-      <c r="C124">
         <v>-0.06547656998718987</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
       <c r="B125">
-        <v>1.74371441</v>
-      </c>
-      <c r="C125">
         <v>-0.2382604494253626</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
       <c r="B126">
-        <v>1.87939371</v>
-      </c>
-      <c r="C126">
         <v>0.04945095579390135</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
       <c r="B127">
-        <v>1.97337578</v>
-      </c>
-      <c r="C127">
         <v>0.03263953438309075</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
       <c r="B128">
-        <v>2.08151731</v>
-      </c>
-      <c r="C128">
         <v>0.03636995052135661</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>44043</v>
       </c>
       <c r="B129">
-        <v>2.13216479</v>
-      </c>
-      <c r="C129">
         <v>0.01643589014919411</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>44074</v>
       </c>
       <c r="B130">
-        <v>2.0374816</v>
-      </c>
-      <c r="C130">
         <v>-0.03022931306242038</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>44104</v>
       </c>
       <c r="B131">
-        <v>1.78277878</v>
-      </c>
-      <c r="C131">
         <v>-0.08385328819769633</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>44135</v>
       </c>
       <c r="B132">
-        <v>1.73772351</v>
-      </c>
-      <c r="C132">
         <v>-0.01619074801195663</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>44165</v>
       </c>
       <c r="B133">
-        <v>2.02465425</v>
-      </c>
-      <c r="C133">
-        <v>0.1048063250185554</v>
+        <v>0.0844780304348558</v>
       </c>
     </row>
   </sheetData>
